--- a/04_Entregable 2/previo/metadatos y diccionario_10.xlsx
+++ b/04_Entregable 2/previo/metadatos y diccionario_10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAG\personal\consultorías\wcs\04_Entregable 2\previo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angleito\Documents\Consultorías\wcs\04_Entregable 2\previo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="170">
   <si>
     <t>Elemento</t>
   </si>
@@ -503,13 +503,46 @@
   </si>
   <si>
     <t>Indeterminada</t>
+  </si>
+  <si>
+    <t>Debe ser una de las 24 provincias de Ecuador</t>
+  </si>
+  <si>
+    <t>Número entre 1 y 31 en función del mes</t>
+  </si>
+  <si>
+    <t>Número entre 1 y 12</t>
+  </si>
+  <si>
+    <t>Número mayor al año en que se empezaron a generar las bases</t>
+  </si>
+  <si>
+    <t>Debe cumplir con un formato establecido</t>
+  </si>
+  <si>
+    <t>Se debe especificar en que tipo de proyección se encuentra</t>
+  </si>
+  <si>
+    <t>Las variables de identificación deben cumplir con una extensión y combinación de caracteres específicos</t>
+  </si>
+  <si>
+    <t>Localización</t>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>Geolocalización</t>
+  </si>
+  <si>
+    <t>Identificación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,8 +564,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,6 +582,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -613,6 +665,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,6 +1163,12 @@
       <c r="F2" s="9" t="s">
         <v>93</v>
       </c>
+      <c r="G2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="I2" s="11" t="s">
         <v>134</v>
       </c>
@@ -1124,11 +1186,14 @@
       <c r="D3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="I3" s="11" t="s">
         <v>135</v>
       </c>
@@ -1152,6 +1217,12 @@
       <c r="F4" s="9" t="s">
         <v>93</v>
       </c>
+      <c r="G4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="I4" s="11">
         <v>19</v>
       </c>
@@ -1175,6 +1246,12 @@
       <c r="F5" s="9" t="s">
         <v>93</v>
       </c>
+      <c r="G5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="I5" s="11">
         <v>1</v>
       </c>
@@ -1198,6 +1275,12 @@
       <c r="F6" s="9" t="s">
         <v>93</v>
       </c>
+      <c r="G6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="I6" s="11">
         <v>2022</v>
       </c>
@@ -1221,6 +1304,12 @@
       <c r="F7" s="9" t="s">
         <v>93</v>
       </c>
+      <c r="G7" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="I7" s="11" t="s">
         <v>136</v>
       </c>
@@ -1235,7 +1324,7 @@
       <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -1243,6 +1332,12 @@
       </c>
       <c r="F8" s="9" t="s">
         <v>48</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="I8" s="11">
         <v>862985</v>
@@ -1258,7 +1353,7 @@
       <c r="C9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -1266,6 +1361,12 @@
       </c>
       <c r="F9" s="9" t="s">
         <v>48</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="I9" s="11">
         <v>10085688</v>
@@ -1290,6 +1391,10 @@
       <c r="F10" s="9" t="s">
         <v>94</v>
       </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="I10" s="11" t="s">
         <v>137</v>
       </c>
@@ -1313,6 +1418,10 @@
       <c r="F11" s="9" t="s">
         <v>94</v>
       </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="I11" s="11" t="s">
         <v>138</v>
       </c>
@@ -1336,6 +1445,12 @@
       <c r="F12" s="9" t="s">
         <v>94</v>
       </c>
+      <c r="G12" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="I12" s="11">
         <v>1091673176</v>
       </c>
@@ -1359,6 +1474,10 @@
       <c r="F13" s="9" t="s">
         <v>94</v>
       </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="I13" s="11" t="s">
         <v>139</v>
       </c>
@@ -1376,9 +1495,13 @@
       <c r="D14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="9" t="s">
         <v>95</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>140</v>
@@ -1397,9 +1520,13 @@
       <c r="D15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="9" t="s">
         <v>95</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>141</v>
@@ -1424,6 +1551,10 @@
       <c r="F16" s="9" t="s">
         <v>95</v>
       </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I16" s="12" t="s">
         <v>157</v>
       </c>
@@ -1447,6 +1578,10 @@
       <c r="F17" s="9" t="s">
         <v>95</v>
       </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I17" s="11" t="s">
         <v>142</v>
       </c>
@@ -1470,6 +1605,10 @@
       <c r="F18" s="9" t="s">
         <v>95</v>
       </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I18" s="11" t="s">
         <v>143</v>
       </c>
@@ -1487,9 +1626,13 @@
       <c r="D19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="9" t="s">
         <v>96</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>144</v>
@@ -1508,9 +1651,13 @@
       <c r="D20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="9" t="s">
         <v>96</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>145</v>
@@ -1529,9 +1676,13 @@
       <c r="D21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="9" t="s">
         <v>96</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>146</v>
@@ -1556,6 +1707,10 @@
       <c r="F22" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I22" s="11" t="s">
         <v>147</v>
       </c>
@@ -1573,9 +1728,13 @@
       <c r="D23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="9" t="s">
         <v>96</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>148</v>
@@ -1600,6 +1759,10 @@
       <c r="F24" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I24" s="11">
         <v>1</v>
       </c>
@@ -1623,6 +1786,10 @@
       <c r="F25" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I25" s="11">
         <v>30</v>
       </c>
@@ -1646,6 +1813,10 @@
       <c r="F26" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I26" s="11" t="s">
         <v>34</v>
       </c>
@@ -1669,6 +1840,10 @@
       <c r="F27" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I27" s="11" t="s">
         <v>34</v>
       </c>
@@ -1692,6 +1867,10 @@
       <c r="F28" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I28" s="11" t="s">
         <v>34</v>
       </c>
@@ -1715,6 +1894,10 @@
       <c r="F29" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I29" s="11" t="s">
         <v>34</v>
       </c>
@@ -1738,6 +1921,10 @@
       <c r="F30" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I30" s="11" t="s">
         <v>34</v>
       </c>
@@ -1761,6 +1948,10 @@
       <c r="F31" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
@@ -1781,6 +1972,10 @@
       <c r="F32" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I32" s="11">
         <v>1</v>
       </c>
@@ -1798,9 +1993,13 @@
       <c r="D33" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="9" t="s">
         <v>96</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>149</v>
@@ -1825,6 +2024,10 @@
       <c r="F34" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="I34" s="11" t="s">
         <v>98</v>
       </c>
@@ -1848,6 +2051,10 @@
       <c r="F35" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
@@ -1868,6 +2075,10 @@
       <c r="F36" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
@@ -1882,9 +2093,13 @@
       <c r="D37" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="14"/>
       <c r="F37" s="9" t="s">
         <v>97</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>150</v>
@@ -1909,6 +2124,12 @@
       <c r="F38" s="9" t="s">
         <v>97</v>
       </c>
+      <c r="G38" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="I38" s="11" t="s">
         <v>151</v>
       </c>
@@ -1926,9 +2147,13 @@
       <c r="D39" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="9" t="s">
         <v>97</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="I39" s="11" t="s">
         <v>152</v>
@@ -1953,6 +2178,12 @@
       <c r="F40" s="9" t="s">
         <v>97</v>
       </c>
+      <c r="G40" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="I40" s="11" t="s">
         <v>153</v>
       </c>
@@ -1976,6 +2207,10 @@
       <c r="F41" s="9" t="s">
         <v>49</v>
       </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="I41" s="11" t="s">
         <v>154</v>
       </c>
@@ -1999,6 +2234,10 @@
       <c r="F42" s="9" t="s">
         <v>49</v>
       </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="I42" s="11" t="s">
         <v>155</v>
       </c>
@@ -2022,6 +2261,10 @@
       <c r="F43" s="9" t="s">
         <v>49</v>
       </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="I43" s="11" t="s">
         <v>156</v>
       </c>
@@ -2045,15 +2288,19 @@
       <c r="F44" s="9" t="s">
         <v>49</v>
       </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="I44" s="11">
         <v>44585</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="13" t="s">
         <v>158</v>
       </c>
     </row>
